--- a/Stats.xlsx
+++ b/Stats.xlsx
@@ -472,8 +472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0FA2E79-CBC4-9644-BB72-0D85C65F05CF}">
   <dimension ref="A1:EK63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H60" sqref="H60"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:DV35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11160,7 +11160,7 @@
         <v>-0.60986941080079871</v>
       </c>
       <c r="C28" s="2">
-        <f t="shared" ref="C28:BN28" si="120">STANDARDIZE(C10,$DW10,$DX10)</f>
+        <f t="shared" ref="C28:U28" si="120">STANDARDIZE(C10,$DW10,$DX10)</f>
         <v>0.75144623830812585</v>
       </c>
       <c r="D28" s="2">
@@ -11240,7 +11240,7 @@
         <v>-0.60986941080079871</v>
       </c>
       <c r="W28" s="2">
-        <f t="shared" ref="W28:CH28" si="121">STANDARDIZE(W10,$DW10,$DX10)</f>
+        <f t="shared" ref="W28:AE28" si="121">STANDARDIZE(W10,$DW10,$DX10)</f>
         <v>-0.60986941080079871</v>
       </c>
       <c r="X28" s="2">
@@ -11280,7 +11280,7 @@
         <v>-0.60986941080079871</v>
       </c>
       <c r="AG28" s="2">
-        <f t="shared" ref="AG28:CR28" si="122">STANDARDIZE(AG10,$DW10,$DX10)</f>
+        <f t="shared" ref="AG28:AW28" si="122">STANDARDIZE(AG10,$DW10,$DX10)</f>
         <v>0.75144623830812585</v>
       </c>
       <c r="AH28" s="2">
@@ -11352,7 +11352,7 @@
         <v>0.75144623830812585</v>
       </c>
       <c r="AY28" s="2">
-        <f t="shared" ref="AY28:DJ28" si="123">STANDARDIZE(AY10,$DW10,$DX10)</f>
+        <f t="shared" ref="AY28:BQ28" si="123">STANDARDIZE(AY10,$DW10,$DX10)</f>
         <v>0.75144623830812585</v>
       </c>
       <c r="AZ28" s="2">
@@ -11432,7 +11432,7 @@
         <v>0.75144623830812585</v>
       </c>
       <c r="BS28" s="2">
-        <f t="shared" ref="BS28:BX28" si="124">STANDARDIZE(BS10,$DW10,$DX10)</f>
+        <f t="shared" ref="BS28:BT28" si="124">STANDARDIZE(BS10,$DW10,$DX10)</f>
         <v>0.75144623830812585</v>
       </c>
       <c r="BT28" s="2">
@@ -11512,7 +11512,7 @@
         <v>-0.60986941080079871</v>
       </c>
       <c r="CM28" s="2">
-        <f t="shared" ref="CM28:DH28" si="126">STANDARDIZE(CM10,$DW10,$DX10)</f>
+        <f t="shared" ref="CM28:DE28" si="126">STANDARDIZE(CM10,$DW10,$DX10)</f>
         <v>-0.60986941080079871</v>
       </c>
       <c r="CN28" s="2">
@@ -11592,7 +11592,7 @@
         <v>0.75144623830812585</v>
       </c>
       <c r="DG28" s="2">
-        <f t="shared" ref="DG28:DV28" si="127">STANDARDIZE(DG10,$DW10,$DX10)</f>
+        <f t="shared" ref="DG28:DH28" si="127">STANDARDIZE(DG10,$DW10,$DX10)</f>
         <v>0.75144623830812585</v>
       </c>
       <c r="DH28" s="2">
@@ -12186,7 +12186,7 @@
         <v>0.67705030235083807</v>
       </c>
       <c r="C30" s="2">
-        <f t="shared" ref="C30:BN30" si="131">STANDARDIZE(C12,$DW12,$DX12)</f>
+        <f t="shared" ref="C30:U30" si="131">STANDARDIZE(C12,$DW12,$DX12)</f>
         <v>0.67705030235083807</v>
       </c>
       <c r="D30" s="2">
@@ -12266,7 +12266,7 @@
         <v>0.67705030235083807</v>
       </c>
       <c r="W30" s="2">
-        <f t="shared" ref="W30:CH30" si="132">STANDARDIZE(W12,$DW12,$DX12)</f>
+        <f t="shared" ref="W30:AE30" si="132">STANDARDIZE(W12,$DW12,$DX12)</f>
         <v>0.67705030235083807</v>
       </c>
       <c r="X30" s="2">
@@ -12306,7 +12306,7 @@
         <v>-2.4966229899187122</v>
       </c>
       <c r="AG30" s="2">
-        <f t="shared" ref="AG30:CR30" si="133">STANDARDIZE(AG12,$DW12,$DX12)</f>
+        <f t="shared" ref="AG30:AW30" si="133">STANDARDIZE(AG12,$DW12,$DX12)</f>
         <v>-0.38084079507234547</v>
       </c>
       <c r="AH30" s="2">
@@ -12378,7 +12378,7 @@
         <v>0.67705030235083807</v>
       </c>
       <c r="AY30" s="2">
-        <f t="shared" ref="AY30:DJ30" si="134">STANDARDIZE(AY12,$DW12,$DX12)</f>
+        <f t="shared" ref="AY30:BQ30" si="134">STANDARDIZE(AY12,$DW12,$DX12)</f>
         <v>-1.438731892495529</v>
       </c>
       <c r="AZ30" s="2">
@@ -12458,7 +12458,7 @@
         <v>0.67705030235083807</v>
       </c>
       <c r="BS30" s="2">
-        <f t="shared" ref="BS30:BX30" si="135">STANDARDIZE(BS12,$DW12,$DX12)</f>
+        <f t="shared" ref="BS30:BT30" si="135">STANDARDIZE(BS12,$DW12,$DX12)</f>
         <v>0.67705030235083807</v>
       </c>
       <c r="BT30" s="2">
@@ -12538,7 +12538,7 @@
         <v>0.67705030235083807</v>
       </c>
       <c r="CM30" s="2">
-        <f t="shared" ref="CM30:DH30" si="137">STANDARDIZE(CM12,$DW12,$DX12)</f>
+        <f t="shared" ref="CM30:DE30" si="137">STANDARDIZE(CM12,$DW12,$DX12)</f>
         <v>0.67705030235083807</v>
       </c>
       <c r="CN30" s="2">
@@ -12618,7 +12618,7 @@
         <v>0.67705030235083807</v>
       </c>
       <c r="DG30" s="2">
-        <f t="shared" ref="DG30:DV30" si="138">STANDARDIZE(DG12,$DW12,$DX12)</f>
+        <f t="shared" ref="DG30:DH30" si="138">STANDARDIZE(DG12,$DW12,$DX12)</f>
         <v>-1.438731892495529</v>
       </c>
       <c r="DH30" s="2">
@@ -13208,7 +13208,7 @@
         <v>12</v>
       </c>
       <c r="B32" s="2">
-        <f t="shared" ref="B32:BM35" si="142">STANDARDIZE(B14,$DW14,$DX14)</f>
+        <f t="shared" ref="B32:BM34" si="142">STANDARDIZE(B14,$DW14,$DX14)</f>
         <v>0.74002503894240013</v>
       </c>
       <c r="C32" s="2">
@@ -13464,7 +13464,7 @@
         <v>-0.62031510617230701</v>
       </c>
       <c r="BN32" s="2">
-        <f t="shared" ref="BN32:DV35" si="143">STANDARDIZE(BN14,$DW14,$DX14)</f>
+        <f t="shared" ref="BN32:DV34" si="143">STANDARDIZE(BN14,$DW14,$DX14)</f>
         <v>5.985496638504656E-2</v>
       </c>
       <c r="BO32" s="2">
@@ -15007,7 +15007,7 @@
         <v>0.3076427035660369</v>
       </c>
       <c r="BO35" s="2">
-        <f t="shared" ref="BO35:DW35" si="145">STANDARDIZE(BO17,$DW17,$DX17)</f>
+        <f t="shared" ref="BO35:DV35" si="145">STANDARDIZE(BO17,$DW17,$DX17)</f>
         <v>1.1369427629187649</v>
       </c>
       <c r="BP35" s="2">

--- a/Stats.xlsx
+++ b/Stats.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="760" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{DEEE9A63-F05F-094E-A2B0-354010B9D7BB}"/>
+    <workbookView xWindow="760" yWindow="4800" windowWidth="28040" windowHeight="17040" xr2:uid="{DEEE9A63-F05F-094E-A2B0-354010B9D7BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="23">
   <si>
     <t>s0</t>
   </si>
@@ -477,7 +477,7 @@
   <dimension ref="A1:ALM63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="DW60" sqref="DW60:DX60"/>
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16518,6 +16518,9 @@
       </c>
     </row>
     <row r="36" spans="1:128" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="B36" s="2">
         <f>STANDARDIZE(B18,$DW18,$DX18)</f>
         <v>-1.1474194649610179</v>
